--- a/bug.xlsx
+++ b/bug.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagoalvarezrojo/Documents/github/xirr-bug/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4DFC4FC-2D27-9240-9E04-8162D96EE27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB020B43-1623-7749-942A-5668D8BC0CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{57708B2D-C3D7-A145-A9AE-847BB37EE0A4}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="17900" windowHeight="17080" xr2:uid="{57708B2D-C3D7-A145-A9AE-847BB37EE0A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +33,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D70616-085B-FC4D-A441-785C79807C72}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,23 +428,35 @@
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>43718</v>
       </c>
       <c r="B1">
         <v>-400</v>
       </c>
+      <c r="E1" s="1">
+        <v>43859</v>
+      </c>
+      <c r="F1">
+        <v>-4988.74</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43851</v>
       </c>
       <c r="B2">
         <v>-400</v>
       </c>
+      <c r="E2" s="1">
+        <v>43914</v>
+      </c>
+      <c r="F2">
+        <v>4074.54</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43885</v>
       </c>
@@ -448,7 +464,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43906</v>
       </c>
@@ -456,10 +472,14 @@
         <v>895.24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <f>XIRR(B1:B4,A1:A4)</f>
         <v>-0.7419572301208972</v>
+      </c>
+      <c r="F5" s="2">
+        <f>XIRR(F1:F4,E1:E4)</f>
+        <v>-0.73903509750962249</v>
       </c>
     </row>
   </sheetData>
